--- a/biology/Botanique/Légume_vivace/Légume_vivace.xlsx
+++ b/biology/Botanique/Légume_vivace/Légume_vivace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9gume_vivace</t>
+          <t>Légume_vivace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les légumes vivaces (ou légumes perpétuels) sont des plantes ou parties de plantes qui sont préparées et consommées comme un légume, et qui sont aussi vivaces, selon la zone de culture. Les vivaces vivent plus de deux ans, ce qui exclut les plantes bisannuelles.
 Certains légumes vivaces bien connus provenant des régions tempérés du monde incluent entre autres les asperges, les artichauts et la rhubarbe. Dans les régions tropicales, le manioc et le taro sont des plantes vivaces cultivées comme des légumes. Ces plantes peuvent vivre de nombreuses années.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9gume_vivace</t>
+          <t>Légume_vivace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
